--- a/ChangeAndDrop/Assets/Sheet/Data.xlsx
+++ b/ChangeAndDrop/Assets/Sheet/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tt6tt\OneDrive\바탕 화면\안중재\ChangeAndDrop\ChangeAndDrop\Assets\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF3115C-A27B-44B9-A4EF-8C8CA68C53F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75889DC-F71D-4A82-9448-BBD5C56A217B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StageSheet" sheetId="8" r:id="rId1"/>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{4DD21A6D-A291-4C4A-A4F0-191D7C788389}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{4DD21A6D-A291-4C4A-A4F0-191D7C788389}">
       <text>
         <r>
           <rPr>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>C</t>
     </r>
@@ -187,27 +183,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5,8,0,1,9,6,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,9,0,2,1,2,10,1,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,8,7,8,2,1,9,9,10,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10,2,10,7,0,5,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4,3,4,3,3,10,10,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,11,7,0,1,10,0</t>
+    <t>CreateBlue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateOrange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,0,11,0,7,0,1,10,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,3,4,3,3,10,10,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10,2,10,7,0,5,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8,7,8,2,1,9,9,10,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,9,0,2,1,2,10,1,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,8,0,1,9,6,0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,7 +517,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,13 +533,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -546,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4">
         <v>50</v>
@@ -560,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4">
         <v>100</v>
@@ -574,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4">
         <v>90</v>
@@ -602,10 +606,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -616,10 +620,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -631,10 +635,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D8FE8F-530F-4F26-A714-0FCE865320FB}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="XEB1" workbookViewId="0">
+      <selection activeCell="XFD14" sqref="XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,13 +648,13 @@
     <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="8" width="12.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -670,16 +674,19 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -687,7 +694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -709,8 +716,11 @@
       <c r="G3" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -732,8 +742,11 @@
       <c r="G4" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -755,8 +768,11 @@
       <c r="G5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -778,8 +794,11 @@
       <c r="G6" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -801,8 +820,11 @@
       <c r="G7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -824,60 +846,63 @@
       <c r="G8" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
       </c>
-      <c r="I11" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>3</v>
       </c>
-      <c r="I12" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>4</v>
       </c>
-      <c r="I13" s="1">
-        <v>500</v>
+      <c r="J13" s="1">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/ChangeAndDrop/Assets/Sheet/Data.xlsx
+++ b/ChangeAndDrop/Assets/Sheet/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tt6tt\OneDrive\바탕 화면\안중재\ChangeAndDrop\ChangeAndDrop\Assets\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75889DC-F71D-4A82-9448-BBD5C56A217B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28B6CF8-A60B-4064-AE21-AE0B8C67770D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StageSheet" sheetId="8" r:id="rId1"/>
@@ -517,7 +517,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +623,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="4">
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
